--- a/biology/Médecine/Hyperkératose/Hyperkératose.xlsx
+++ b/biology/Médecine/Hyperkératose/Hyperkératose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperk%C3%A9ratose</t>
+          <t>Hyperkératose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hyperkératose est un terme général qui, dans le domaine de la dermatologie, désigne un groupe d'affections de la peau caractérisées par une augmentation significative de la kératinisation, et de ce fait une augmentation de la couche cornée de l'épiderme : ichtyose, kératose (kératodermie), porokératose, verrue[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperkératose est un terme général qui, dans le domaine de la dermatologie, désigne un groupe d'affections de la peau caractérisées par une augmentation significative de la kératinisation, et de ce fait une augmentation de la couche cornée de l'épiderme : ichtyose, kératose (kératodermie), porokératose, verrue.
 Chez l'être humain, le terme indique typiquement un épaississement de la peau, plus ou moins étendu, non pathologique quand il s'agit du durcissement de la peau lié à la marche avec les pieds nus ou à la manipulation fréquente de certains outils.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperk%C3%A9ratose</t>
+          <t>Hyperkératose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Rappel sur le processus de kératinisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La peau est formée de trois couches distinctes avec (de l’extérieur vers l’intérieur), l'épiderme, le derme et l'hypoderme.
 L'épiderme est constitué de cellules appelées kératinocytes, qui se forment dans la couche basale (couche cellulaire située à la jonction du derme et de l'épiderme). Les kératinocytes migrent naturellement vers la surface. En vieillissant, ils perdent leur noyau et se chargent de kératine. Ils forment le stratum corneum, ou couche cornée. Ils sont ensuite éliminés par desquamation.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperk%C3%A9ratose</t>
+          <t>Hyperkératose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Mécanisme général</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certaines maladies de peau, ou lorsque la peau subit une agression (pressions, frottement, ...), et surtout si ces agressions se répètent, l'organisme déclenche une réaction inflammatoire localisée.
 L'inflammation peut augmenter le processus de renouvellement cellulaire des kératinocytes.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyperk%C3%A9ratose</t>
+          <t>Hyperkératose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Les traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'origine de l'hyperkératose, le traitement sera soit dermatologique, soit pédicural.
 En règle générale, on réalise une ablation de la zone hyperkératosique, en associant une thérapie adaptée à l'origine de celle-ci.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hyperk%C3%A9ratose</t>
+          <t>Hyperkératose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certaines pathologies d'ordre général, une hyperkératose peut entraîner des complications dramatiques (mal perforant plantaire, infection, amputation), notamment en cas de perte de la sensibilité (complication fréquente du diabète sucré), ou de troubles vasculaires de type artérite.
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hyperk%C3%A9ratose</t>
+          <t>Hyperkératose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cals et cors
 verrues
